--- a/Kopie van Project_approval2017.xlsx
+++ b/Kopie van Project_approval2017.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Blad1" sheetId="3" r:id="rId1"/>
     <sheet name="Projectenoverzicht" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Overzicht projecten</t>
   </si>
@@ -153,7 +153,10 @@
     <t>Lab resources (robots) that your require</t>
   </si>
   <si>
-    <t>Multi robot transport with swarm method. Loading unloading and safety will be investigated. The swarm might contain robots of different types, e.g. a robot that functions as a recon robot equiped with a LIDAR and odometry sensor.</t>
+    <t>Multi robot transport with swarm method. Loading unloading and safety will be investigated. The swarm might contain robots of different types, e.g. a robot that functions as a recon robot equiped with a LIDAR and odometry sensor. The method for docking to recharge the robot, and for loading/unloading at the machines or storage will be researched as well.</t>
+  </si>
+  <si>
+    <t>Multi robot transportation and collaboration</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1753,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp130.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1926,7 +1929,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp170.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2194,7 +2197,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2234,7 +2237,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2246,7 +2249,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp242.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2254,7 +2257,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp243.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp244.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18567,7 +18570,7 @@
   <dimension ref="A2:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:G15"/>
+      <selection activeCell="D5" sqref="D5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18634,7 +18637,9 @@
       <c r="C4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="112"/>
+      <c r="D4" s="112" t="s">
+        <v>43</v>
+      </c>
       <c r="E4" s="112"/>
       <c r="F4" s="112"/>
       <c r="G4" s="112"/>
